--- a/helene_county_newsrooms/NC-News-Census-1.xlsx
+++ b/helene_county_newsrooms/NC-News-Census-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ect/Desktop/News &amp; Info Census/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanans/Desktop/helene_coverage/helene_county_newsrooms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{4A010FA6-0C70-6445-B90E-A55BCD1F7ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F7E9D69-F05B-4EBA-AD8F-A88118473EBD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC6A645-A104-E54D-9D32-8AEE3291EF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4968,7 +4968,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4984,13 +4984,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5002,16 +5016,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5028,9 +5046,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5068,9 +5086,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5103,26 +5121,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5155,26 +5156,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5350,20 +5334,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I379"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5392,7 +5376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -5415,7 +5399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -5438,7 +5422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -5467,59 +5451,59 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -5548,65 +5532,65 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -5635,7 +5619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -5658,7 +5642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -5681,7 +5665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -5704,7 +5688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -5733,233 +5717,233 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
+      <c r="I15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
+      <c r="I16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
+      <c r="I17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
+      <c r="I18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
+      <c r="I19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
+      <c r="I20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
+      <c r="I21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="I22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -5988,7 +5972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -6011,7 +5995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -6040,7 +6024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -6063,7 +6047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>150</v>
       </c>
@@ -6092,7 +6076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>157</v>
       </c>
@@ -6121,7 +6105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>164</v>
       </c>
@@ -6144,7 +6128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>168</v>
       </c>
@@ -6167,7 +6151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>172</v>
       </c>
@@ -6190,7 +6174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -6213,7 +6197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>181</v>
       </c>
@@ -6236,7 +6220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>186</v>
       </c>
@@ -6259,7 +6243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>190</v>
       </c>
@@ -6282,7 +6266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -6305,7 +6289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>198</v>
       </c>
@@ -6328,7 +6312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>201</v>
       </c>
@@ -6351,7 +6335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>206</v>
       </c>
@@ -6374,7 +6358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>210</v>
       </c>
@@ -6397,7 +6381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>215</v>
       </c>
@@ -6420,7 +6404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>219</v>
       </c>
@@ -6443,7 +6427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>222</v>
       </c>
@@ -6466,7 +6450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>226</v>
       </c>
@@ -6489,7 +6473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>230</v>
       </c>
@@ -6512,7 +6496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>236</v>
       </c>
@@ -6535,7 +6519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>241</v>
       </c>
@@ -6558,7 +6542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>245</v>
       </c>
@@ -6581,7 +6565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>249</v>
       </c>
@@ -6604,7 +6588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>253</v>
       </c>
@@ -6627,7 +6611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>258</v>
       </c>
@@ -6650,7 +6634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>262</v>
       </c>
@@ -6673,7 +6657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>267</v>
       </c>
@@ -6696,7 +6680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>271</v>
       </c>
@@ -6719,7 +6703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>275</v>
       </c>
@@ -6742,7 +6726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>279</v>
       </c>
@@ -6765,7 +6749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>283</v>
       </c>
@@ -6788,7 +6772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>289</v>
       </c>
@@ -6811,7 +6795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>293</v>
       </c>
@@ -6834,7 +6818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>298</v>
       </c>
@@ -6857,7 +6841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>302</v>
       </c>
@@ -6880,7 +6864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>305</v>
       </c>
@@ -6903,7 +6887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>308</v>
       </c>
@@ -6926,7 +6910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>312</v>
       </c>
@@ -6949,7 +6933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>316</v>
       </c>
@@ -6972,7 +6956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>322</v>
       </c>
@@ -6995,7 +6979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>328</v>
       </c>
@@ -7018,7 +7002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>332</v>
       </c>
@@ -7041,7 +7025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -7064,7 +7048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>339</v>
       </c>
@@ -7093,7 +7077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>345</v>
       </c>
@@ -7122,7 +7106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>351</v>
       </c>
@@ -7151,7 +7135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>358</v>
       </c>
@@ -7180,7 +7164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>362</v>
       </c>
@@ -7206,7 +7190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>366</v>
       </c>
@@ -7235,7 +7219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>372</v>
       </c>
@@ -7264,7 +7248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>378</v>
       </c>
@@ -7293,7 +7277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>383</v>
       </c>
@@ -7322,7 +7306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>390</v>
       </c>
@@ -7351,7 +7335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>395</v>
       </c>
@@ -7380,7 +7364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>401</v>
       </c>
@@ -7409,7 +7393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>407</v>
       </c>
@@ -7438,7 +7422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>414</v>
       </c>
@@ -7467,7 +7451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>416</v>
       </c>
@@ -7496,7 +7480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>421</v>
       </c>
@@ -7525,7 +7509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>425</v>
       </c>
@@ -7551,7 +7535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>431</v>
       </c>
@@ -7580,7 +7564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>438</v>
       </c>
@@ -7609,7 +7593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>444</v>
       </c>
@@ -7638,7 +7622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>450</v>
       </c>
@@ -7667,7 +7651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>456</v>
       </c>
@@ -7696,7 +7680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>462</v>
       </c>
@@ -7725,7 +7709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>468</v>
       </c>
@@ -7754,7 +7738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>474</v>
       </c>
@@ -7783,7 +7767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>478</v>
       </c>
@@ -7812,7 +7796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>483</v>
       </c>
@@ -7841,7 +7825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>489</v>
       </c>
@@ -7870,7 +7854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>495</v>
       </c>
@@ -7899,7 +7883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>499</v>
       </c>
@@ -7928,7 +7912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>505</v>
       </c>
@@ -7957,7 +7941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>510</v>
       </c>
@@ -7986,7 +7970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>516</v>
       </c>
@@ -8015,7 +7999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>522</v>
       </c>
@@ -8044,7 +8028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>528</v>
       </c>
@@ -8073,7 +8057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>533</v>
       </c>
@@ -8102,7 +8086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>540</v>
       </c>
@@ -8131,7 +8115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>544</v>
       </c>
@@ -8160,7 +8144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>548</v>
       </c>
@@ -8189,7 +8173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>554</v>
       </c>
@@ -8218,7 +8202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>561</v>
       </c>
@@ -8241,7 +8225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>566</v>
       </c>
@@ -8270,7 +8254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>572</v>
       </c>
@@ -8299,7 +8283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>579</v>
       </c>
@@ -8328,7 +8312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>583</v>
       </c>
@@ -8357,7 +8341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>590</v>
       </c>
@@ -8386,7 +8370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>595</v>
       </c>
@@ -8415,7 +8399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>598</v>
       </c>
@@ -8444,7 +8428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>604</v>
       </c>
@@ -8473,7 +8457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>609</v>
       </c>
@@ -8502,7 +8486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>613</v>
       </c>
@@ -8531,7 +8515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>620</v>
       </c>
@@ -8548,7 +8532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>622</v>
       </c>
@@ -8568,7 +8552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>625</v>
       </c>
@@ -8585,7 +8569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>627</v>
       </c>
@@ -8602,7 +8586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>629</v>
       </c>
@@ -8619,7 +8603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>632</v>
       </c>
@@ -8645,7 +8629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>637</v>
       </c>
@@ -8662,7 +8646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>638</v>
       </c>
@@ -8679,7 +8663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>544</v>
       </c>
@@ -8705,7 +8689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>646</v>
       </c>
@@ -8731,7 +8715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>651</v>
       </c>
@@ -8757,7 +8741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>655</v>
       </c>
@@ -8777,7 +8761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>658</v>
       </c>
@@ -8794,7 +8778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>660</v>
       </c>
@@ -8817,7 +8801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>665</v>
       </c>
@@ -8840,7 +8824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>668</v>
       </c>
@@ -8860,7 +8844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>671</v>
       </c>
@@ -8880,7 +8864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>675</v>
       </c>
@@ -8906,7 +8890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>680</v>
       </c>
@@ -8932,7 +8916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>686</v>
       </c>
@@ -8958,7 +8942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>691</v>
       </c>
@@ -8981,7 +8965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>695</v>
       </c>
@@ -9007,7 +8991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>699</v>
       </c>
@@ -9033,7 +9017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>705</v>
       </c>
@@ -9050,7 +9034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>706</v>
       </c>
@@ -9070,7 +9054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>710</v>
       </c>
@@ -9096,7 +9080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>716</v>
       </c>
@@ -9122,7 +9106,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>721</v>
       </c>
@@ -9148,7 +9132,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>726</v>
       </c>
@@ -9174,7 +9158,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>732</v>
       </c>
@@ -9203,7 +9187,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>736</v>
       </c>
@@ -9223,7 +9207,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>739</v>
       </c>
@@ -9240,7 +9224,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>236</v>
       </c>
@@ -9266,7 +9250,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>744</v>
       </c>
@@ -9289,7 +9273,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>749</v>
       </c>
@@ -9318,7 +9302,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>755</v>
       </c>
@@ -9341,7 +9325,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>759</v>
       </c>
@@ -9367,7 +9351,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>766</v>
       </c>
@@ -9393,7 +9377,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>772</v>
       </c>
@@ -9419,7 +9403,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>777</v>
       </c>
@@ -9445,7 +9429,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>781</v>
       </c>
@@ -9471,7 +9455,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>787</v>
       </c>
@@ -9491,7 +9475,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>790</v>
       </c>
@@ -9520,7 +9504,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>794</v>
       </c>
@@ -9549,7 +9533,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>799</v>
       </c>
@@ -9578,7 +9562,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>804</v>
       </c>
@@ -9607,7 +9591,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>810</v>
       </c>
@@ -9636,7 +9620,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>815</v>
       </c>
@@ -9656,7 +9640,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>818</v>
       </c>
@@ -9676,7 +9660,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>820</v>
       </c>
@@ -9699,7 +9683,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>825</v>
       </c>
@@ -9725,7 +9709,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>832</v>
       </c>
@@ -9751,7 +9735,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>838</v>
       </c>
@@ -9777,7 +9761,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>844</v>
       </c>
@@ -9803,7 +9787,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>846</v>
       </c>
@@ -9829,7 +9813,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>852</v>
       </c>
@@ -9855,7 +9839,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>859</v>
       </c>
@@ -9884,7 +9868,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>863</v>
       </c>
@@ -9913,7 +9897,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>867</v>
       </c>
@@ -9939,7 +9923,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>869</v>
       </c>
@@ -9968,7 +9952,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>872</v>
       </c>
@@ -9997,7 +9981,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>874</v>
       </c>
@@ -10026,7 +10010,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>877</v>
       </c>
@@ -10055,7 +10039,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>881</v>
       </c>
@@ -10084,7 +10068,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>883</v>
       </c>
@@ -10113,7 +10097,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>885</v>
       </c>
@@ -10142,7 +10126,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>887</v>
       </c>
@@ -10171,7 +10155,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>889</v>
       </c>
@@ -10200,7 +10184,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>896</v>
       </c>
@@ -10229,7 +10213,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>903</v>
       </c>
@@ -10258,7 +10242,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>910</v>
       </c>
@@ -10287,7 +10271,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>918</v>
       </c>
@@ -10316,7 +10300,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>920</v>
       </c>
@@ -10345,7 +10329,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>925</v>
       </c>
@@ -10374,7 +10358,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>932</v>
       </c>
@@ -10400,7 +10384,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>939</v>
       </c>
@@ -10426,7 +10410,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>945</v>
       </c>
@@ -10455,7 +10439,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>953</v>
       </c>
@@ -10481,7 +10465,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>959</v>
       </c>
@@ -10504,7 +10488,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>965</v>
       </c>
@@ -10524,7 +10508,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>968</v>
       </c>
@@ -10544,7 +10528,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>970</v>
       </c>
@@ -10564,7 +10548,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>973</v>
       </c>
@@ -10590,7 +10574,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>980</v>
       </c>
@@ -10616,7 +10600,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>986</v>
       </c>
@@ -10639,7 +10623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>990</v>
       </c>
@@ -10662,7 +10646,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>996</v>
       </c>
@@ -10685,7 +10669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1000</v>
       </c>
@@ -10708,7 +10692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1004</v>
       </c>
@@ -10731,7 +10715,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1008</v>
       </c>
@@ -10754,7 +10738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1011</v>
       </c>
@@ -10777,7 +10761,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1015</v>
       </c>
@@ -10800,7 +10784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1019</v>
       </c>
@@ -10823,7 +10807,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1023</v>
       </c>
@@ -10846,7 +10830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1027</v>
       </c>
@@ -10869,7 +10853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1031</v>
       </c>
@@ -10892,7 +10876,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1035</v>
       </c>
@@ -10915,7 +10899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1039</v>
       </c>
@@ -10938,7 +10922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1043</v>
       </c>
@@ -10961,7 +10945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1047</v>
       </c>
@@ -10984,7 +10968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1051</v>
       </c>
@@ -11007,7 +10991,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1054</v>
       </c>
@@ -11027,7 +11011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1056</v>
       </c>
@@ -11050,7 +11034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1060</v>
       </c>
@@ -11073,7 +11057,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1065</v>
       </c>
@@ -11096,7 +11080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1069</v>
       </c>
@@ -11119,7 +11103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1073</v>
       </c>
@@ -11142,7 +11126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1077</v>
       </c>
@@ -11165,7 +11149,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1082</v>
       </c>
@@ -11188,7 +11172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1085</v>
       </c>
@@ -11211,7 +11195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1089</v>
       </c>
@@ -11234,7 +11218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1093</v>
       </c>
@@ -11257,7 +11241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1096</v>
       </c>
@@ -11280,7 +11264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1100</v>
       </c>
@@ -11303,7 +11287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1104</v>
       </c>
@@ -11326,7 +11310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1107</v>
       </c>
@@ -11349,7 +11333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1111</v>
       </c>
@@ -11372,7 +11356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1114</v>
       </c>
@@ -11395,7 +11379,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1119</v>
       </c>
@@ -11418,7 +11402,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1124</v>
       </c>
@@ -11444,7 +11428,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1130</v>
       </c>
@@ -11473,7 +11457,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1136</v>
       </c>
@@ -11502,7 +11486,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1140</v>
       </c>
@@ -11522,7 +11506,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1143</v>
       </c>
@@ -11539,7 +11523,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1145</v>
       </c>
@@ -11556,7 +11540,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1147</v>
       </c>
@@ -11576,7 +11560,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1151</v>
       </c>
@@ -11602,7 +11586,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1156</v>
       </c>
@@ -11622,7 +11606,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1159</v>
       </c>
@@ -11639,7 +11623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1161</v>
       </c>
@@ -11656,7 +11640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1163</v>
       </c>
@@ -11670,7 +11654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1165</v>
       </c>
@@ -11684,7 +11668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1166</v>
       </c>
@@ -11701,7 +11685,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1169</v>
       </c>
@@ -11718,7 +11702,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1171</v>
       </c>
@@ -11735,7 +11719,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1172</v>
       </c>
@@ -11749,7 +11733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1174</v>
       </c>
@@ -11766,7 +11750,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1177</v>
       </c>
@@ -11780,7 +11764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1179</v>
       </c>
@@ -11794,7 +11778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1180</v>
       </c>
@@ -11811,7 +11795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1182</v>
       </c>
@@ -11828,7 +11812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1184</v>
       </c>
@@ -11845,7 +11829,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1187</v>
       </c>
@@ -11868,7 +11852,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1192</v>
       </c>
@@ -11897,7 +11881,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1199</v>
       </c>
@@ -11911,7 +11895,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1201</v>
       </c>
@@ -11928,7 +11912,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1202</v>
       </c>
@@ -11957,7 +11941,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1208</v>
       </c>
@@ -11983,7 +11967,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1214</v>
       </c>
@@ -12012,7 +11996,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1221</v>
       </c>
@@ -12041,7 +12025,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1228</v>
       </c>
@@ -12067,7 +12051,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1234</v>
       </c>
@@ -12093,7 +12077,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1240</v>
       </c>
@@ -12119,7 +12103,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1246</v>
       </c>
@@ -12148,7 +12132,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1253</v>
       </c>
@@ -12177,7 +12161,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1260</v>
       </c>
@@ -12203,7 +12187,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1266</v>
       </c>
@@ -12232,7 +12216,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1273</v>
       </c>
@@ -12258,7 +12242,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1278</v>
       </c>
@@ -12284,7 +12268,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1283</v>
       </c>
@@ -12310,7 +12294,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1286</v>
       </c>
@@ -12336,7 +12320,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1292</v>
       </c>
@@ -12362,7 +12346,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1298</v>
       </c>
@@ -12391,7 +12375,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1304</v>
       </c>
@@ -12408,7 +12392,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1307</v>
       </c>
@@ -12425,7 +12409,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1309</v>
       </c>
@@ -12451,7 +12435,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1315</v>
       </c>
@@ -12474,7 +12458,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1319</v>
       </c>
@@ -12497,7 +12481,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1324</v>
       </c>
@@ -12523,7 +12507,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1330</v>
       </c>
@@ -12549,7 +12533,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1334</v>
       </c>
@@ -12575,7 +12559,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1336</v>
       </c>
@@ -12601,7 +12585,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1338</v>
       </c>
@@ -12627,7 +12611,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1343</v>
       </c>
@@ -12641,7 +12625,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1346</v>
       </c>
@@ -12655,7 +12639,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1349</v>
       </c>
@@ -12669,7 +12653,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1350</v>
       </c>
@@ -12683,7 +12667,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1351</v>
       </c>
@@ -12697,7 +12681,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1353</v>
       </c>
@@ -12711,7 +12695,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1355</v>
       </c>
@@ -12725,7 +12709,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1358</v>
       </c>
@@ -12739,7 +12723,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1360</v>
       </c>
@@ -12753,7 +12737,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1363</v>
       </c>
@@ -12767,7 +12751,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1365</v>
       </c>
@@ -12781,7 +12765,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1367</v>
       </c>
@@ -12795,7 +12779,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1369</v>
       </c>
@@ -12809,7 +12793,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1371</v>
       </c>
@@ -12823,7 +12807,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1373</v>
       </c>
@@ -12837,7 +12821,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1375</v>
       </c>
@@ -12851,7 +12835,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1378</v>
       </c>
@@ -12865,7 +12849,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1381</v>
       </c>
@@ -12879,7 +12863,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1383</v>
       </c>
@@ -12893,7 +12877,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1385</v>
       </c>
@@ -12907,7 +12891,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1387</v>
       </c>
@@ -12921,7 +12905,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1389</v>
       </c>
@@ -12935,7 +12919,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1392</v>
       </c>
@@ -12949,7 +12933,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1394</v>
       </c>
@@ -12963,7 +12947,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1396</v>
       </c>
@@ -12977,7 +12961,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1398</v>
       </c>
@@ -12991,7 +12975,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1400</v>
       </c>
@@ -13005,7 +12989,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1401</v>
       </c>
@@ -13019,7 +13003,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1403</v>
       </c>
@@ -13033,7 +13017,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1406</v>
       </c>
@@ -13047,7 +13031,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1408</v>
       </c>
@@ -13061,7 +13045,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1410</v>
       </c>
@@ -13075,7 +13059,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1412</v>
       </c>
@@ -13089,7 +13073,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1414</v>
       </c>
@@ -13103,7 +13087,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1416</v>
       </c>
@@ -13117,7 +13101,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1418</v>
       </c>
@@ -13131,7 +13115,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1420</v>
       </c>
@@ -13145,7 +13129,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1421</v>
       </c>
@@ -13159,7 +13143,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1423</v>
       </c>
@@ -13173,7 +13157,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1425</v>
       </c>
@@ -13187,7 +13171,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1426</v>
       </c>
@@ -13201,7 +13185,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1428</v>
       </c>
@@ -13215,7 +13199,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1431</v>
       </c>
@@ -13229,7 +13213,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1433</v>
       </c>
@@ -13243,7 +13227,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1434</v>
       </c>
@@ -13257,7 +13241,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1435</v>
       </c>
@@ -13271,7 +13255,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1436</v>
       </c>
@@ -13285,7 +13269,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1438</v>
       </c>
@@ -13305,7 +13289,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1442</v>
       </c>
@@ -13331,7 +13315,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1447</v>
       </c>
@@ -13351,7 +13335,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1451</v>
       </c>
@@ -13377,7 +13361,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1457</v>
       </c>
@@ -13397,7 +13381,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1461</v>
       </c>
@@ -13426,7 +13410,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1468</v>
       </c>
@@ -13449,7 +13433,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1473</v>
       </c>
@@ -13475,7 +13459,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1479</v>
       </c>
@@ -13495,7 +13479,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1483</v>
       </c>
@@ -13515,7 +13499,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1487</v>
       </c>
@@ -13538,7 +13522,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1492</v>
       </c>
@@ -13558,7 +13542,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1496</v>
       </c>
@@ -13584,7 +13568,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1502</v>
       </c>
@@ -13607,7 +13591,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1507</v>
       </c>
@@ -13627,7 +13611,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1511</v>
       </c>
@@ -13644,7 +13628,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1514</v>
       </c>
@@ -13667,7 +13651,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>1519</v>
       </c>
@@ -13687,7 +13671,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1523</v>
       </c>
@@ -13707,7 +13691,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1527</v>
       </c>
@@ -13727,7 +13711,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1531</v>
       </c>
@@ -13753,7 +13737,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>1537</v>
       </c>
@@ -13779,7 +13763,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1543</v>
       </c>
@@ -13808,7 +13792,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1550</v>
       </c>
@@ -13831,7 +13815,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1555</v>
       </c>
@@ -13860,7 +13844,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1562</v>
       </c>
@@ -13886,7 +13870,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1568</v>
       </c>
@@ -13912,7 +13896,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1574</v>
       </c>
@@ -13935,7 +13919,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1579</v>
       </c>
@@ -13961,7 +13945,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1585</v>
       </c>
@@ -13987,7 +13971,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1591</v>
       </c>
@@ -14010,7 +13994,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1597</v>
       </c>
@@ -14036,7 +14020,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1603</v>
       </c>
@@ -14056,7 +14040,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1608</v>
       </c>
@@ -14076,7 +14060,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1613</v>
       </c>
@@ -14099,7 +14083,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1619</v>
       </c>
@@ -14125,7 +14109,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1626</v>
       </c>
@@ -14148,7 +14132,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1631</v>
       </c>
@@ -14168,7 +14152,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1635</v>
       </c>
@@ -14189,11 +14173,41 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{A47049E8-2E2E-E445-AE98-6A336EC6702A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a153d0d-f9e2-45d4-b642-d0ca5977be71">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="97a2baaa-e85b-47a8-a29f-5c0db417f7b2" xsi:nil="true"/>
+    <SharedWithUsers xmlns="97a2baaa-e85b-47a8-a29f-5c0db417f7b2">
+      <UserInfo>
+        <DisplayName>Mahone, Jessica</DisplayName>
+        <AccountId>269</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ACF695D086A4E243AE96DD20CF1CD199" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fcd2ffbc49e27e27d1729aa249214832">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7a153d0d-f9e2-45d4-b642-d0ca5977be71" xmlns:ns3="97a2baaa-e85b-47a8-a29f-5c0db417f7b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5dd932039df0254f819f41d8d8c353d0" ns2:_="" ns3:_="">
     <xsd:import namespace="7a153d0d-f9e2-45d4-b642-d0ca5977be71"/>
@@ -14430,41 +14444,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a153d0d-f9e2-45d4-b642-d0ca5977be71">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="97a2baaa-e85b-47a8-a29f-5c0db417f7b2" xsi:nil="true"/>
-    <SharedWithUsers xmlns="97a2baaa-e85b-47a8-a29f-5c0db417f7b2">
-      <UserInfo>
-        <DisplayName>Mahone, Jessica</DisplayName>
-        <AccountId>269</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54B481D9-8C78-48FF-9272-1EDC6D3E46D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12D48B3D-10BE-4D32-AFFE-0C43791125E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7a153d0d-f9e2-45d4-b642-d0ca5977be71"/>
+    <ds:schemaRef ds:uri="97a2baaa-e85b-47a8-a29f-5c0db417f7b2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{903BB217-8E32-4F63-A3B7-CF0737F5C23B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{903BB217-8E32-4F63-A3B7-CF0737F5C23B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12D48B3D-10BE-4D32-AFFE-0C43791125E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54B481D9-8C78-48FF-9272-1EDC6D3E46D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7a153d0d-f9e2-45d4-b642-d0ca5977be71"/>
+    <ds:schemaRef ds:uri="97a2baaa-e85b-47a8-a29f-5c0db417f7b2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>